--- a/tabular/contributed/180416 VOX TABLE.xlsx
+++ b/tabular/contributed/180416 VOX TABLE.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6420" yWindow="3320" windowWidth="18200" windowHeight="11320"/>
+    <workbookView xWindow="15660" yWindow="7980" windowWidth="30780" windowHeight="19740"/>
   </bookViews>
   <sheets>
     <sheet name="VOX" sheetId="1" r:id="rId1"/>
@@ -29,71 +29,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="144">
-  <si>
-    <t>Gene</t>
-  </si>
-  <si>
-    <t>Substitution</t>
-  </si>
-  <si>
-    <t>Virus Genotype</t>
-  </si>
-  <si>
-    <t>Resisted drug</t>
-  </si>
-  <si>
-    <t>In vitro/</t>
-  </si>
-  <si>
-    <t>EC50 log FC range</t>
-  </si>
-  <si>
-    <t>Clinical trial name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clinical trial </t>
-  </si>
-  <si>
-    <t>Clinical trial</t>
-  </si>
-  <si>
-    <t>Literature reference</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="135">
   <si>
     <t>Weight of evidence</t>
   </si>
   <si>
-    <t>or subtype</t>
-  </si>
-  <si>
     <t>in vivo</t>
   </si>
   <si>
-    <t>(in vitro only)</t>
-  </si>
-  <si>
-    <t>(in vivo only)</t>
-  </si>
-  <si>
-    <t>Drug regimen</t>
-  </si>
-  <si>
-    <t>cohort</t>
-  </si>
-  <si>
-    <t>Other notes?</t>
-  </si>
-  <si>
-    <t>(preferably pubmed ID)</t>
-  </si>
-  <si>
-    <t>(1 = lowest,</t>
-  </si>
-  <si>
-    <t>5 = highest?)</t>
-  </si>
-  <si>
     <t>NS3</t>
   </si>
   <si>
@@ -145,9 +88,6 @@
     <t>Pooled phase III EASL 2017 Abs 248</t>
   </si>
   <si>
-    <t>D168A</t>
-  </si>
-  <si>
     <t>2.5-20</t>
   </si>
   <si>
@@ -373,9 +313,6 @@
     <t>80K+168Y</t>
   </si>
   <si>
-    <t>41K+43L+80K=168Y</t>
-  </si>
-  <si>
     <t>56F+122N+170I</t>
   </si>
   <si>
@@ -461,6 +398,42 @@
   </si>
   <si>
     <t>T em - treatment emergent RAS</t>
+  </si>
+  <si>
+    <t>41K+43L+80K+168Y</t>
+  </si>
+  <si>
+    <t>gene</t>
+  </si>
+  <si>
+    <t>virusGenotype</t>
+  </si>
+  <si>
+    <t>substitution</t>
+  </si>
+  <si>
+    <t>drug</t>
+  </si>
+  <si>
+    <t>vitroOrVivo</t>
+  </si>
+  <si>
+    <t>ec50</t>
+  </si>
+  <si>
+    <t>clinicalTrialName</t>
+  </si>
+  <si>
+    <t>trialRegimen</t>
+  </si>
+  <si>
+    <t>trialCohort</t>
+  </si>
+  <si>
+    <t>trialNotes</t>
+  </si>
+  <si>
+    <t>pubmed</t>
   </si>
 </sst>
 </file>
@@ -562,7 +535,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -605,15 +578,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -915,10 +879,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M119"/>
+  <dimension ref="A1:M117"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -940,3602 +904,3543 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="L1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="3" t="s">
+      <c r="F2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="4" t="s">
+      <c r="K2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="4" t="s">
+      <c r="L2" s="9"/>
+    </row>
+    <row r="3" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="1"/>
-      <c r="B2" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="2" t="s">
+      <c r="D3" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="1"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="4" t="s">
-        <v>20</v>
-      </c>
+      <c r="K3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" s="9"/>
     </row>
     <row r="4" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>22</v>
+        <v>4</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>14</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
-      <c r="I4" s="7" t="s">
-        <v>25</v>
+      <c r="I4" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="L4" s="9"/>
+        <v>18</v>
+      </c>
+      <c r="L4" s="6"/>
     </row>
     <row r="5" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>31</v>
+        <v>20</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
       <c r="I5" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>32</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="J5" s="6"/>
       <c r="K5" s="7" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="L5" s="9"/>
     </row>
     <row r="6" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="B6" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>33</v>
-      </c>
       <c r="D6" s="7" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>34</v>
+        <v>20</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
-      <c r="I6" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>36</v>
-      </c>
+      <c r="I6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" s="7"/>
       <c r="K6" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="L6" s="6"/>
+        <v>22</v>
+      </c>
+      <c r="L6" s="9"/>
     </row>
     <row r="7" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>38</v>
+        <v>4</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
       <c r="I7" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="J7" s="6"/>
+        <v>21</v>
+      </c>
+      <c r="J7" s="7"/>
       <c r="K7" s="7" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="L7" s="9"/>
     </row>
     <row r="8" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
       <c r="I8" s="7" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="J8" s="7"/>
       <c r="K8" s="7" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="L8" s="9"/>
     </row>
     <row r="9" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
       <c r="I9" s="7" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="J9" s="7"/>
       <c r="K9" s="7" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="L9" s="9"/>
     </row>
     <row r="10" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
       <c r="I10" s="7" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="J10" s="7"/>
       <c r="K10" s="7" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="L10" s="9"/>
     </row>
     <row r="11" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
       <c r="I11" s="7" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="J11" s="7"/>
       <c r="K11" s="7" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="L11" s="9"/>
     </row>
     <row r="12" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="J12" s="7"/>
       <c r="K12" s="7" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="L12" s="9"/>
     </row>
     <row r="13" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
       <c r="I13" s="7" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="J13" s="7"/>
       <c r="K13" s="7" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="L13" s="9"/>
     </row>
     <row r="14" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
       <c r="I14" s="7" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="J14" s="7"/>
       <c r="K14" s="7" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="L14" s="9"/>
     </row>
     <row r="15" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
       <c r="I15" s="7" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="J15" s="7"/>
       <c r="K15" s="7" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="L15" s="9"/>
     </row>
     <row r="16" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
       <c r="I16" s="7" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="J16" s="7"/>
       <c r="K16" s="7" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="L16" s="9"/>
     </row>
     <row r="17" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
       <c r="I17" s="7" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="J17" s="7"/>
       <c r="K17" s="7" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="L17" s="9"/>
     </row>
     <row r="18" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
       <c r="I18" s="7" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="J18" s="7"/>
       <c r="K18" s="7" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="L18" s="9"/>
     </row>
     <row r="19" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
       <c r="I19" s="7" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="J19" s="7"/>
       <c r="K19" s="7" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="L19" s="9"/>
     </row>
     <row r="20" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
       <c r="I20" s="7" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="J20" s="7"/>
       <c r="K20" s="7" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="L20" s="9"/>
     </row>
     <row r="21" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
       <c r="I21" s="7" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="J21" s="7"/>
       <c r="K21" s="7" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="L21" s="9"/>
     </row>
     <row r="22" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
       <c r="I22" s="7" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="J22" s="7"/>
       <c r="K22" s="7" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="L22" s="9"/>
     </row>
     <row r="23" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
       <c r="I23" s="7" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="J23" s="7"/>
       <c r="K23" s="7" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="L23" s="9"/>
     </row>
     <row r="24" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="G24" s="7"/>
+        <v>19</v>
+      </c>
+      <c r="G24" s="6"/>
       <c r="H24" s="7"/>
       <c r="I24" s="7" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="J24" s="7"/>
       <c r="K24" s="7" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="L24" s="9"/>
     </row>
     <row r="25" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="G25" s="7"/>
+        <v>33</v>
+      </c>
+      <c r="G25" s="6"/>
       <c r="H25" s="7"/>
       <c r="I25" s="7" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="J25" s="7"/>
       <c r="K25" s="7" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="L25" s="9"/>
     </row>
     <row r="26" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="C26" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>39</v>
       </c>
       <c r="G26" s="6"/>
       <c r="H26" s="7"/>
       <c r="I26" s="7" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="J26" s="7"/>
       <c r="K26" s="7" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="L26" s="9"/>
     </row>
     <row r="27" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="G27" s="6"/>
       <c r="H27" s="7"/>
       <c r="I27" s="7" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="J27" s="7"/>
       <c r="K27" s="7" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="L27" s="9"/>
     </row>
     <row r="28" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="G28" s="6"/>
       <c r="H28" s="7"/>
       <c r="I28" s="7" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="J28" s="7"/>
       <c r="K28" s="7" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="L28" s="9"/>
     </row>
     <row r="29" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="G29" s="6"/>
       <c r="H29" s="7"/>
       <c r="I29" s="7" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="J29" s="7"/>
       <c r="K29" s="7" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="L29" s="9"/>
     </row>
     <row r="30" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>67</v>
+        <v>46</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>48</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="G30" s="6"/>
       <c r="H30" s="7"/>
       <c r="I30" s="7" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="J30" s="7"/>
       <c r="K30" s="7" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="L30" s="9"/>
     </row>
     <row r="31" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G31" s="6"/>
       <c r="H31" s="7"/>
       <c r="I31" s="7" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="J31" s="7"/>
       <c r="K31" s="7" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="L31" s="9"/>
     </row>
     <row r="32" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>68</v>
+        <v>46</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>42</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G32" s="6"/>
       <c r="H32" s="7"/>
       <c r="I32" s="7" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="J32" s="7"/>
       <c r="K32" s="7" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="L32" s="9"/>
     </row>
     <row r="33" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="G33" s="6"/>
       <c r="H33" s="7"/>
       <c r="I33" s="7" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="J33" s="7"/>
       <c r="K33" s="7" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="L33" s="9"/>
     </row>
     <row r="34" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="G34" s="6"/>
       <c r="H34" s="7"/>
       <c r="I34" s="7" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="J34" s="7"/>
       <c r="K34" s="7" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="L34" s="9"/>
     </row>
     <row r="35" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="G35" s="6"/>
       <c r="H35" s="7"/>
       <c r="I35" s="7" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="J35" s="7"/>
       <c r="K35" s="7" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="L35" s="9"/>
     </row>
     <row r="36" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>69</v>
+        <v>28</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="G36" s="6"/>
       <c r="H36" s="7"/>
       <c r="I36" s="7" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="J36" s="7"/>
       <c r="K36" s="7" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="L36" s="9"/>
     </row>
     <row r="37" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="G37" s="6"/>
       <c r="H37" s="7"/>
       <c r="I37" s="7" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="J37" s="7"/>
       <c r="K37" s="7" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="L37" s="9"/>
     </row>
     <row r="38" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="G38" s="6"/>
       <c r="H38" s="7"/>
       <c r="I38" s="7" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="J38" s="7"/>
       <c r="K38" s="7" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="L38" s="9"/>
     </row>
     <row r="39" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="G39" s="6"/>
       <c r="H39" s="7"/>
       <c r="I39" s="7" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="J39" s="7"/>
       <c r="K39" s="7" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="L39" s="9"/>
     </row>
     <row r="40" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="G40" s="6"/>
       <c r="H40" s="7"/>
       <c r="I40" s="7" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="J40" s="7"/>
       <c r="K40" s="7" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="L40" s="9"/>
     </row>
     <row r="41" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="G41" s="6"/>
       <c r="H41" s="7"/>
       <c r="I41" s="7" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="J41" s="7"/>
       <c r="K41" s="7" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="L41" s="9"/>
     </row>
     <row r="42" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="G42" s="6"/>
       <c r="H42" s="7"/>
       <c r="I42" s="7" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="J42" s="7"/>
       <c r="K42" s="7" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="L42" s="9"/>
     </row>
     <row r="43" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="G43" s="6"/>
       <c r="H43" s="7"/>
       <c r="I43" s="7" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="J43" s="7"/>
       <c r="K43" s="7" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="L43" s="9"/>
     </row>
     <row r="44" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>72</v>
+        <v>4</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="G44" s="6"/>
       <c r="H44" s="7"/>
       <c r="I44" s="7" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="J44" s="7"/>
       <c r="K44" s="7" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="L44" s="9"/>
     </row>
     <row r="45" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>69</v>
+        <v>4</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>55</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="G45" s="6"/>
       <c r="H45" s="7"/>
       <c r="I45" s="7" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="J45" s="7"/>
       <c r="K45" s="7" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="L45" s="9"/>
     </row>
     <row r="46" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>74</v>
+        <v>4</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>56</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="G46" s="6"/>
       <c r="H46" s="7"/>
       <c r="I46" s="7" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="J46" s="7"/>
       <c r="K46" s="7" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="L46" s="9"/>
     </row>
     <row r="47" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="G47" s="6"/>
       <c r="H47" s="7"/>
       <c r="I47" s="7" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="J47" s="7"/>
       <c r="K47" s="7" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="L47" s="9"/>
     </row>
     <row r="48" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="G48" s="6"/>
-      <c r="H48" s="7"/>
+      <c r="H48" s="6"/>
       <c r="I48" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="J48" s="7"/>
+        <v>21</v>
+      </c>
+      <c r="J48" s="6"/>
       <c r="K48" s="7" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="L48" s="9"/>
     </row>
     <row r="49" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="G49" s="6"/>
-      <c r="H49" s="7"/>
+      <c r="H49" s="6"/>
       <c r="I49" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="J49" s="7"/>
+        <v>21</v>
+      </c>
+      <c r="J49" s="6"/>
       <c r="K49" s="7" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="L49" s="9"/>
     </row>
     <row r="50" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="G50" s="6"/>
       <c r="H50" s="6"/>
       <c r="I50" s="7" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="J50" s="6"/>
       <c r="K50" s="7" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="L50" s="9"/>
     </row>
     <row r="51" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="G51" s="6"/>
       <c r="H51" s="6"/>
       <c r="I51" s="7" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="J51" s="6"/>
       <c r="K51" s="7" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="L51" s="9"/>
     </row>
     <row r="52" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F52" s="7" t="s">
-        <v>39</v>
+        <v>20</v>
+      </c>
+      <c r="F52" s="7">
+        <v>2.8</v>
       </c>
       <c r="G52" s="6"/>
       <c r="H52" s="6"/>
       <c r="I52" s="7" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="J52" s="6"/>
       <c r="K52" s="7" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="L52" s="9"/>
     </row>
     <row r="53" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="G53" s="6"/>
       <c r="H53" s="6"/>
       <c r="I53" s="7" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="J53" s="6"/>
       <c r="K53" s="7" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="L53" s="9"/>
     </row>
     <row r="54" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F54" s="7">
-        <v>2.8</v>
+        <v>20</v>
+      </c>
+      <c r="F54" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="G54" s="6"/>
       <c r="H54" s="6"/>
       <c r="I54" s="7" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="J54" s="6"/>
       <c r="K54" s="7" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="L54" s="9"/>
     </row>
     <row r="55" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G55" s="6"/>
       <c r="H55" s="6"/>
       <c r="I55" s="7" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="J55" s="6"/>
       <c r="K55" s="7" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="L55" s="9"/>
     </row>
     <row r="56" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="6" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G56" s="6"/>
       <c r="H56" s="6"/>
       <c r="I56" s="7" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="J56" s="6"/>
       <c r="K56" s="7" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="L56" s="9"/>
     </row>
     <row r="57" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="6" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="G57" s="6"/>
       <c r="H57" s="6"/>
       <c r="I57" s="7" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="J57" s="6"/>
       <c r="K57" s="7" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="L57" s="9"/>
     </row>
     <row r="58" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="6" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="G58" s="6"/>
       <c r="H58" s="6"/>
       <c r="I58" s="7" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="J58" s="6"/>
       <c r="K58" s="7" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="L58" s="9"/>
     </row>
     <row r="59" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="6" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="G59" s="6"/>
       <c r="H59" s="6"/>
       <c r="I59" s="7" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="J59" s="6"/>
       <c r="K59" s="7" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="L59" s="9"/>
     </row>
     <row r="60" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="6" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="G60" s="6"/>
       <c r="H60" s="6"/>
       <c r="I60" s="7" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="J60" s="6"/>
       <c r="K60" s="7" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="L60" s="9"/>
     </row>
     <row r="61" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="6" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G61" s="6"/>
       <c r="H61" s="6"/>
       <c r="I61" s="7" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="J61" s="6"/>
       <c r="K61" s="7" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="L61" s="9"/>
     </row>
     <row r="62" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="6" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="G62" s="6"/>
       <c r="H62" s="6"/>
       <c r="I62" s="7" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="J62" s="6"/>
       <c r="K62" s="7" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="L62" s="9"/>
     </row>
     <row r="63" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="6" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>91</v>
+        <v>57</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="G63" s="6"/>
       <c r="H63" s="6"/>
       <c r="I63" s="7" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="J63" s="6"/>
       <c r="K63" s="7" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="L63" s="9"/>
     </row>
     <row r="64" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="6" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>92</v>
+        <v>65</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G64" s="6"/>
       <c r="H64" s="6"/>
       <c r="I64" s="7" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="J64" s="6"/>
       <c r="K64" s="7" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="L64" s="9"/>
     </row>
     <row r="65" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="6" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="G65" s="6"/>
       <c r="H65" s="6"/>
       <c r="I65" s="7" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="J65" s="6"/>
       <c r="K65" s="7" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="L65" s="9"/>
     </row>
     <row r="66" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="6" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="G66" s="6"/>
       <c r="H66" s="6"/>
       <c r="I66" s="7" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="J66" s="6"/>
       <c r="K66" s="7" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="L66" s="9"/>
     </row>
     <row r="67" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="6" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="G67" s="6"/>
       <c r="H67" s="6"/>
       <c r="I67" s="7" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="J67" s="6"/>
       <c r="K67" s="7" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="L67" s="9"/>
     </row>
     <row r="68" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" s="6" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="G68" s="6"/>
       <c r="H68" s="6"/>
       <c r="I68" s="7" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="J68" s="6"/>
       <c r="K68" s="7" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="L68" s="9"/>
     </row>
     <row r="69" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69" s="6" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="G69" s="6"/>
       <c r="H69" s="6"/>
       <c r="I69" s="7" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="J69" s="6"/>
       <c r="K69" s="7" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="L69" s="9"/>
     </row>
     <row r="70" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="6" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G70" s="6"/>
       <c r="H70" s="6"/>
       <c r="I70" s="7" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="J70" s="6"/>
       <c r="K70" s="7" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="L70" s="9"/>
     </row>
     <row r="71" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="6" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G71" s="6"/>
       <c r="H71" s="6"/>
       <c r="I71" s="7" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="J71" s="6"/>
       <c r="K71" s="7" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="L71" s="9"/>
     </row>
     <row r="72" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="6" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>72</v>
+        <v>4</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F72" s="7" t="s">
-        <v>49</v>
+        <v>20</v>
+      </c>
+      <c r="F72" s="6">
+        <v>2</v>
       </c>
       <c r="G72" s="6"/>
       <c r="H72" s="6"/>
       <c r="I72" s="7" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="J72" s="6"/>
       <c r="K72" s="7" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="L72" s="9"/>
     </row>
     <row r="73" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="6" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>72</v>
+        <v>4</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F73" s="7" t="s">
-        <v>49</v>
+        <v>20</v>
+      </c>
+      <c r="F73" s="6">
+        <v>3.4</v>
       </c>
       <c r="G73" s="6"/>
       <c r="H73" s="6"/>
       <c r="I73" s="7" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="J73" s="6"/>
       <c r="K73" s="7" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="L73" s="9"/>
     </row>
     <row r="74" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="6" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F74" s="6">
-        <v>2</v>
+        <v>3.6</v>
       </c>
       <c r="G74" s="6"/>
       <c r="H74" s="6"/>
       <c r="I74" s="7" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="J74" s="6"/>
       <c r="K74" s="7" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="L74" s="9"/>
     </row>
     <row r="75" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="6" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F75" s="6">
-        <v>3.4</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="G75" s="6"/>
       <c r="H75" s="6"/>
       <c r="I75" s="7" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="J75" s="6"/>
       <c r="K75" s="7" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="L75" s="9"/>
     </row>
     <row r="76" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="6" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F76" s="6">
-        <v>3.6</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="G76" s="6"/>
       <c r="H76" s="6"/>
       <c r="I76" s="7" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="J76" s="6"/>
       <c r="K76" s="7" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="L76" s="9"/>
     </row>
     <row r="77" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="6" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F77" s="6">
-        <v>4.0999999999999996</v>
+        <v>5.2</v>
       </c>
       <c r="G77" s="6"/>
       <c r="H77" s="6"/>
       <c r="I77" s="7" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="J77" s="6"/>
       <c r="K77" s="7" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="L77" s="9"/>
     </row>
     <row r="78" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="6" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F78" s="6">
-        <v>4.9000000000000004</v>
+        <v>5.9</v>
       </c>
       <c r="G78" s="6"/>
       <c r="H78" s="6"/>
       <c r="I78" s="7" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="J78" s="6"/>
       <c r="K78" s="7" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="L78" s="9"/>
     </row>
     <row r="79" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" s="6" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="E79" s="7" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F79" s="6">
-        <v>5.2</v>
+        <v>6.2</v>
       </c>
       <c r="G79" s="6"/>
       <c r="H79" s="6"/>
       <c r="I79" s="7" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="J79" s="6"/>
       <c r="K79" s="7" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="L79" s="9"/>
     </row>
     <row r="80" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="6" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="E80" s="7" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F80" s="6">
-        <v>5.9</v>
+        <v>7</v>
       </c>
       <c r="G80" s="6"/>
       <c r="H80" s="6"/>
       <c r="I80" s="7" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="J80" s="6"/>
       <c r="K80" s="7" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="L80" s="9"/>
     </row>
     <row r="81" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81" s="6" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="D81" s="7" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="E81" s="7" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F81" s="6">
-        <v>6.2</v>
+        <v>8</v>
       </c>
       <c r="G81" s="6"/>
       <c r="H81" s="6"/>
       <c r="I81" s="7" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="J81" s="6"/>
       <c r="K81" s="7" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="L81" s="9"/>
     </row>
     <row r="82" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82" s="6" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="D82" s="7" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="E82" s="7" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F82" s="6">
-        <v>7</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="G82" s="6"/>
       <c r="H82" s="6"/>
       <c r="I82" s="7" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="J82" s="6"/>
       <c r="K82" s="7" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="L82" s="9"/>
     </row>
     <row r="83" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A83" s="6" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="D83" s="7" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="E83" s="7" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F83" s="6">
-        <v>8</v>
+        <v>10.7</v>
       </c>
       <c r="G83" s="6"/>
       <c r="H83" s="6"/>
       <c r="I83" s="7" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="J83" s="6"/>
       <c r="K83" s="7" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="L83" s="9"/>
     </row>
     <row r="84" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="6" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="D84" s="7" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="E84" s="7" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F84" s="6">
-        <v>9.1999999999999993</v>
+        <v>10.8</v>
       </c>
       <c r="G84" s="6"/>
       <c r="H84" s="6"/>
       <c r="I84" s="7" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="J84" s="6"/>
       <c r="K84" s="7" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="L84" s="9"/>
     </row>
     <row r="85" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A85" s="6" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="D85" s="7" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="E85" s="7" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F85" s="6">
-        <v>10.7</v>
+        <v>11.1</v>
       </c>
       <c r="G85" s="6"/>
       <c r="H85" s="6"/>
       <c r="I85" s="7" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="J85" s="6"/>
       <c r="K85" s="7" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="L85" s="9"/>
     </row>
     <row r="86" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A86" s="6" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="D86" s="7" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="E86" s="7" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F86" s="6">
-        <v>10.8</v>
+        <v>116.5</v>
       </c>
       <c r="G86" s="6"/>
       <c r="H86" s="6"/>
       <c r="I86" s="7" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="J86" s="6"/>
       <c r="K86" s="7" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="L86" s="9"/>
     </row>
     <row r="87" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A87" s="6" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="D87" s="7" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="E87" s="7" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F87" s="6">
-        <v>11.1</v>
+        <v>232.7</v>
       </c>
       <c r="G87" s="6"/>
       <c r="H87" s="6"/>
       <c r="I87" s="7" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="J87" s="6"/>
       <c r="K87" s="7" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="L87" s="9"/>
     </row>
     <row r="88" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A88" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B88" s="7" t="s">
-        <v>23</v>
+        <v>2</v>
+      </c>
+      <c r="B88" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="E88" s="7" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F88" s="6">
-        <v>116.5</v>
+        <v>3.3</v>
       </c>
       <c r="G88" s="6"/>
       <c r="H88" s="6"/>
       <c r="I88" s="7" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="J88" s="6"/>
       <c r="K88" s="7" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="L88" s="9"/>
     </row>
     <row r="89" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A89" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B89" s="7" t="s">
-        <v>23</v>
+        <v>2</v>
+      </c>
+      <c r="B89" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="D89" s="7" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="E89" s="7" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F89" s="6">
-        <v>232.7</v>
+        <v>3.4</v>
       </c>
       <c r="G89" s="6"/>
       <c r="H89" s="6"/>
       <c r="I89" s="7" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="J89" s="6"/>
       <c r="K89" s="7" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="L89" s="9"/>
     </row>
     <row r="90" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A90" s="6" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="D90" s="7" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="E90" s="7" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F90" s="6">
-        <v>3.3</v>
+        <v>2</v>
       </c>
       <c r="G90" s="6"/>
       <c r="H90" s="6"/>
       <c r="I90" s="7" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="J90" s="6"/>
       <c r="K90" s="7" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="L90" s="9"/>
     </row>
     <row r="91" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A91" s="6" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>55</v>
+        <v>4</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="D91" s="7" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="E91" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F91" s="6">
-        <v>3.4</v>
+        <v>20</v>
+      </c>
+      <c r="F91" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="G91" s="6"/>
       <c r="H91" s="6"/>
       <c r="I91" s="7" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="J91" s="6"/>
       <c r="K91" s="7" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="L91" s="9"/>
     </row>
     <row r="92" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A92" s="6" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>72</v>
+        <v>4</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="D92" s="7" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="E92" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F92" s="6">
-        <v>2</v>
+        <v>20</v>
+      </c>
+      <c r="F92" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="G92" s="6"/>
       <c r="H92" s="6"/>
       <c r="I92" s="7" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="J92" s="6"/>
       <c r="K92" s="7" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="L92" s="9"/>
     </row>
     <row r="93" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A93" s="6" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="D93" s="7" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="E93" s="7" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F93" s="6" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="G93" s="6"/>
       <c r="H93" s="6"/>
       <c r="I93" s="7" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="J93" s="6"/>
       <c r="K93" s="7" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="L93" s="9"/>
     </row>
     <row r="94" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A94" s="6" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>119</v>
+        <v>34</v>
       </c>
       <c r="D94" s="7" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="E94" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F94" s="6" t="s">
-        <v>39</v>
+        <v>20</v>
+      </c>
+      <c r="F94" s="6">
+        <v>2</v>
       </c>
       <c r="G94" s="6"/>
       <c r="H94" s="6"/>
       <c r="I94" s="7" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="J94" s="6"/>
       <c r="K94" s="7" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="L94" s="9"/>
     </row>
     <row r="95" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A95" s="6" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="D95" s="7" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="E95" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F95" s="6" t="s">
-        <v>39</v>
+        <v>20</v>
+      </c>
+      <c r="F95" s="6">
+        <v>2.1</v>
       </c>
       <c r="G95" s="6"/>
       <c r="H95" s="6"/>
       <c r="I95" s="7" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="J95" s="6"/>
       <c r="K95" s="7" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="L95" s="9"/>
     </row>
     <row r="96" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A96" s="6" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>54</v>
+        <v>101</v>
       </c>
       <c r="D96" s="7" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="E96" s="7" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F96" s="6">
-        <v>2</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="G96" s="6"/>
       <c r="H96" s="6"/>
       <c r="I96" s="7" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="J96" s="6"/>
       <c r="K96" s="7" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="L96" s="9"/>
     </row>
     <row r="97" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A97" s="6" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>121</v>
+        <v>49</v>
       </c>
       <c r="D97" s="7" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="E97" s="7" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F97" s="6">
-        <v>2.1</v>
+        <v>3.4</v>
       </c>
       <c r="G97" s="6"/>
       <c r="H97" s="6"/>
       <c r="I97" s="7" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="J97" s="6"/>
       <c r="K97" s="7" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="L97" s="9"/>
     </row>
     <row r="98" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A98" s="6" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>122</v>
+        <v>48</v>
       </c>
       <c r="D98" s="7" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="E98" s="7" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F98" s="6">
-        <v>5.0999999999999996</v>
+        <v>4.2</v>
       </c>
       <c r="G98" s="6"/>
       <c r="H98" s="6"/>
       <c r="I98" s="7" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="J98" s="6"/>
       <c r="K98" s="7" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="L98" s="9"/>
     </row>
     <row r="99" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A99" s="6" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>69</v>
+        <v>3</v>
       </c>
       <c r="D99" s="7" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="E99" s="7" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F99" s="6">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="G99" s="6"/>
       <c r="H99" s="6"/>
       <c r="I99" s="7" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="J99" s="6"/>
       <c r="K99" s="7" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="L99" s="9"/>
     </row>
     <row r="100" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A100" s="6" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>68</v>
+        <v>104</v>
       </c>
       <c r="D100" s="7" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="E100" s="7" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F100" s="6">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="G100" s="6"/>
       <c r="H100" s="6"/>
       <c r="I100" s="7" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="J100" s="6"/>
       <c r="K100" s="7" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="L100" s="9"/>
     </row>
     <row r="101" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A101" s="6" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>22</v>
+        <v>105</v>
       </c>
       <c r="D101" s="7" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="E101" s="7" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F101" s="6">
-        <v>3.8</v>
+        <v>2.4</v>
       </c>
       <c r="G101" s="6"/>
       <c r="H101" s="6"/>
       <c r="I101" s="7" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="J101" s="6"/>
       <c r="K101" s="7" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="L101" s="9"/>
     </row>
     <row r="102" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A102" s="6" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="D102" s="7" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="E102" s="7" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F102" s="6">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="G102" s="6"/>
       <c r="H102" s="6"/>
       <c r="I102" s="7" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="J102" s="6"/>
       <c r="K102" s="7" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="L102" s="9"/>
     </row>
     <row r="103" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A103" s="6" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>55</v>
+        <v>4</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>126</v>
+        <v>14</v>
       </c>
       <c r="D103" s="7" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="E103" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F103" s="6">
-        <v>2.4</v>
+        <v>1</v>
+      </c>
+      <c r="F103" s="6" t="s">
+        <v>107</v>
       </c>
       <c r="G103" s="6"/>
       <c r="H103" s="6"/>
       <c r="I103" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="J103" s="6"/>
+        <v>108</v>
+      </c>
+      <c r="J103" s="6" t="s">
+        <v>109</v>
+      </c>
       <c r="K103" s="7" t="s">
-        <v>42</v>
+        <v>110</v>
       </c>
       <c r="L103" s="9"/>
     </row>
     <row r="104" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A104" s="6" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>55</v>
+        <v>4</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="D104" s="7" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="E104" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F104" s="6">
-        <v>2.5</v>
+        <v>1</v>
+      </c>
+      <c r="F104" s="6" t="s">
+        <v>113</v>
       </c>
       <c r="G104" s="6"/>
       <c r="H104" s="6"/>
       <c r="I104" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="J104" s="6"/>
+        <v>108</v>
+      </c>
+      <c r="J104" s="6" t="s">
+        <v>109</v>
+      </c>
       <c r="K104" s="7" t="s">
-        <v>42</v>
+        <v>110</v>
       </c>
       <c r="L104" s="9"/>
+      <c r="M104" s="11"/>
     </row>
     <row r="105" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A105" s="6" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>33</v>
+        <v>114</v>
       </c>
       <c r="D105" s="7" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="E105" s="7" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="F105" s="6" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="G105" s="6"/>
       <c r="H105" s="6"/>
       <c r="I105" s="7" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="J105" s="6" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="K105" s="7" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="L105" s="9"/>
+      <c r="M105" s="11"/>
     </row>
     <row r="106" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A106" s="6" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>133</v>
+        <v>47</v>
       </c>
       <c r="D106" s="7" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="E106" s="7" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="F106" s="6" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="G106" s="6"/>
       <c r="H106" s="6"/>
       <c r="I106" s="7" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="J106" s="6" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="K106" s="7" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="L106" s="9"/>
       <c r="M106" s="11"/>
     </row>
     <row r="107" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A107" s="6" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="D107" s="7" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="E107" s="7" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="F107" s="6" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="G107" s="6"/>
       <c r="H107" s="6"/>
       <c r="I107" s="7" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="J107" s="6" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="K107" s="7" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="L107" s="9"/>
       <c r="M107" s="11"/>
     </row>
     <row r="108" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A108" s="6" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>70</v>
+        <v>4</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>67</v>
+        <v>102</v>
       </c>
       <c r="D108" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="E108" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F108" s="6" t="s">
-        <v>134</v>
+        <v>118</v>
+      </c>
+      <c r="E108" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F108" s="6">
+        <v>4.5999999999999996</v>
       </c>
       <c r="G108" s="6"/>
       <c r="H108" s="6"/>
-      <c r="I108" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="J108" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="K108" s="7" t="s">
-        <v>131</v>
+      <c r="I108" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="J108" s="6"/>
+      <c r="K108" s="6" t="s">
+        <v>117</v>
       </c>
       <c r="L108" s="9"/>
-      <c r="M108" s="11"/>
     </row>
     <row r="109" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A109" s="6" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>70</v>
+        <v>4</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>136</v>
+        <v>103</v>
       </c>
       <c r="D109" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="E109" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F109" s="6" t="s">
-        <v>134</v>
+        <v>118</v>
+      </c>
+      <c r="E109" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F109" s="6">
+        <v>56</v>
       </c>
       <c r="G109" s="6"/>
       <c r="H109" s="6"/>
-      <c r="I109" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="J109" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="K109" s="7" t="s">
-        <v>131</v>
+      <c r="I109" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="J109" s="6"/>
+      <c r="K109" s="6" t="s">
+        <v>117</v>
       </c>
       <c r="L109" s="9"/>
-      <c r="M109" s="11"/>
     </row>
     <row r="110" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A110" s="6" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="C110" s="6" t="s">
-        <v>123</v>
+        <v>42</v>
       </c>
       <c r="D110" s="7" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="E110" s="6" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F110" s="6">
-        <v>4.5999999999999996</v>
+        <v>581</v>
       </c>
       <c r="G110" s="6"/>
       <c r="H110" s="6"/>
       <c r="I110" s="6" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="J110" s="6"/>
       <c r="K110" s="6" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="L110" s="9"/>
     </row>
     <row r="111" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A111" s="6" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>124</v>
+        <v>34</v>
       </c>
       <c r="D111" s="7" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="E111" s="6" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F111" s="6">
-        <v>56</v>
+        <v>4.3</v>
       </c>
       <c r="G111" s="6"/>
       <c r="H111" s="6"/>
       <c r="I111" s="6" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="J111" s="6"/>
       <c r="K111" s="6" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="L111" s="9"/>
     </row>
     <row r="112" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A112" s="6" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>62</v>
+        <v>103</v>
       </c>
       <c r="D112" s="7" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="E112" s="6" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F112" s="6">
-        <v>581</v>
+        <v>95.9</v>
       </c>
       <c r="G112" s="6"/>
       <c r="H112" s="6"/>
       <c r="I112" s="6" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="J112" s="6"/>
       <c r="K112" s="6" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="L112" s="9"/>
     </row>
     <row r="113" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A113" s="6" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D113" s="7" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="E113" s="6" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F113" s="6">
-        <v>4.3</v>
+        <v>458.2</v>
       </c>
       <c r="G113" s="6"/>
       <c r="H113" s="6"/>
       <c r="I113" s="6" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="J113" s="6"/>
       <c r="K113" s="6" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="L113" s="9"/>
     </row>
     <row r="114" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A114" s="6" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>124</v>
+        <v>42</v>
       </c>
       <c r="D114" s="7" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="E114" s="6" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F114" s="6">
-        <v>95.9</v>
+        <v>552.79999999999995</v>
       </c>
       <c r="G114" s="6"/>
       <c r="H114" s="6"/>
       <c r="I114" s="6" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="J114" s="6"/>
       <c r="K114" s="6" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="L114" s="9"/>
     </row>
     <row r="115" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A115" s="6" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="C115" s="6" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="D115" s="7" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="E115" s="6" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F115" s="6">
-        <v>458.2</v>
+        <v>2.6</v>
       </c>
       <c r="G115" s="6"/>
       <c r="H115" s="6"/>
       <c r="I115" s="6" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="J115" s="6"/>
       <c r="K115" s="6" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="L115" s="9"/>
     </row>
     <row r="116" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A116" s="6" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="D116" s="7" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="E116" s="6" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F116" s="6">
-        <v>552.79999999999995</v>
+        <v>5.7</v>
       </c>
       <c r="G116" s="6"/>
       <c r="H116" s="6"/>
       <c r="I116" s="6" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="J116" s="6"/>
       <c r="K116" s="6" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="L116" s="9"/>
     </row>
     <row r="117" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A117" s="6" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="C117" s="6" t="s">
-        <v>68</v>
+        <v>27</v>
       </c>
       <c r="D117" s="7" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="E117" s="6" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F117" s="6">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="G117" s="6"/>
       <c r="H117" s="6"/>
       <c r="I117" s="6" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="J117" s="6"/>
       <c r="K117" s="6" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="L117" s="9"/>
     </row>
-    <row r="118" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B118" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C118" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D118" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="E118" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="F118" s="6">
-        <v>5.7</v>
-      </c>
-      <c r="G118" s="6"/>
-      <c r="H118" s="6"/>
-      <c r="I118" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="J118" s="6"/>
-      <c r="K118" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="L118" s="9"/>
-    </row>
-    <row r="119" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B119" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C119" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D119" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="E119" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="F119" s="6">
-        <v>2.5</v>
-      </c>
-      <c r="G119" s="6"/>
-      <c r="H119" s="6"/>
-      <c r="I119" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="J119" s="6"/>
-      <c r="K119" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="L119" s="9"/>
-    </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4556,42 +4461,42 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
-        <v>143</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>

--- a/tabular/contributed/180416 VOX TABLE.xlsx
+++ b/tabular/contributed/180416 VOX TABLE.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="138">
   <si>
     <t>Weight of evidence</t>
   </si>
@@ -97,9 +97,6 @@
     <t>Dvory-Sobol</t>
   </si>
   <si>
-    <t>AASLD 2017 Abs 1176</t>
-  </si>
-  <si>
     <t>168F</t>
   </si>
   <si>
@@ -382,9 +379,6 @@
     <t>Lawitz</t>
   </si>
   <si>
-    <t>AASLD 2015 Abs 718</t>
-  </si>
-  <si>
     <t>VOX</t>
   </si>
   <si>
@@ -434,6 +428,21 @@
   </si>
   <si>
     <t>pubmed</t>
+  </si>
+  <si>
+    <t>AASLD_2016_Abs_846</t>
+  </si>
+  <si>
+    <t>Pooled_phase_III_EASL_2017_Abs_248</t>
+  </si>
+  <si>
+    <t>AASLD_2017_Abs_1176</t>
+  </si>
+  <si>
+    <t>EASL_2017_Abs_THU-257</t>
+  </si>
+  <si>
+    <t>AASLD_2015_Abs_718</t>
   </si>
 </sst>
 </file>
@@ -881,8 +890,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M117"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="G92" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G92" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -904,37 +913,37 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="K1" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>134</v>
       </c>
       <c r="L1" s="4" t="s">
         <v>0</v>
@@ -951,7 +960,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>1</v>
@@ -968,7 +977,7 @@
         <v>7</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>8</v>
+        <v>133</v>
       </c>
       <c r="L2" s="9"/>
     </row>
@@ -983,7 +992,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>1</v>
@@ -1000,7 +1009,7 @@
         <v>13</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>8</v>
+        <v>133</v>
       </c>
       <c r="L3" s="9"/>
     </row>
@@ -1015,7 +1024,7 @@
         <v>14</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>1</v>
@@ -1032,7 +1041,7 @@
         <v>17</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>18</v>
+        <v>134</v>
       </c>
       <c r="L4" s="6"/>
     </row>
@@ -1044,10 +1053,10 @@
         <v>4</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>20</v>
@@ -1062,7 +1071,7 @@
       </c>
       <c r="J5" s="6"/>
       <c r="K5" s="7" t="s">
-        <v>22</v>
+        <v>135</v>
       </c>
       <c r="L5" s="9"/>
     </row>
@@ -1074,10 +1083,10 @@
         <v>4</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>20</v>
@@ -1092,7 +1101,7 @@
       </c>
       <c r="J6" s="7"/>
       <c r="K6" s="7" t="s">
-        <v>22</v>
+        <v>135</v>
       </c>
       <c r="L6" s="9"/>
     </row>
@@ -1104,10 +1113,10 @@
         <v>4</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>20</v>
@@ -1122,7 +1131,7 @@
       </c>
       <c r="J7" s="7"/>
       <c r="K7" s="7" t="s">
-        <v>22</v>
+        <v>135</v>
       </c>
       <c r="L7" s="9"/>
     </row>
@@ -1134,10 +1143,10 @@
         <v>4</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>20</v>
@@ -1152,7 +1161,7 @@
       </c>
       <c r="J8" s="7"/>
       <c r="K8" s="7" t="s">
-        <v>22</v>
+        <v>135</v>
       </c>
       <c r="L8" s="9"/>
     </row>
@@ -1164,10 +1173,10 @@
         <v>4</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>20</v>
@@ -1182,7 +1191,7 @@
       </c>
       <c r="J9" s="7"/>
       <c r="K9" s="7" t="s">
-        <v>22</v>
+        <v>135</v>
       </c>
       <c r="L9" s="9"/>
     </row>
@@ -1194,10 +1203,10 @@
         <v>4</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>20</v>
@@ -1212,7 +1221,7 @@
       </c>
       <c r="J10" s="7"/>
       <c r="K10" s="7" t="s">
-        <v>22</v>
+        <v>135</v>
       </c>
       <c r="L10" s="9"/>
     </row>
@@ -1224,16 +1233,16 @@
         <v>4</v>
       </c>
       <c r="C11" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>29</v>
       </c>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
@@ -1242,7 +1251,7 @@
       </c>
       <c r="J11" s="7"/>
       <c r="K11" s="7" t="s">
-        <v>22</v>
+        <v>135</v>
       </c>
       <c r="L11" s="9"/>
     </row>
@@ -1254,16 +1263,16 @@
         <v>4</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
@@ -1272,7 +1281,7 @@
       </c>
       <c r="J12" s="7"/>
       <c r="K12" s="7" t="s">
-        <v>22</v>
+        <v>135</v>
       </c>
       <c r="L12" s="9"/>
     </row>
@@ -1284,16 +1293,16 @@
         <v>4</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
@@ -1302,7 +1311,7 @@
       </c>
       <c r="J13" s="7"/>
       <c r="K13" s="7" t="s">
-        <v>22</v>
+        <v>135</v>
       </c>
       <c r="L13" s="9"/>
     </row>
@@ -1314,16 +1323,16 @@
         <v>4</v>
       </c>
       <c r="C14" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
@@ -1332,7 +1341,7 @@
       </c>
       <c r="J14" s="7"/>
       <c r="K14" s="7" t="s">
-        <v>22</v>
+        <v>135</v>
       </c>
       <c r="L14" s="9"/>
     </row>
@@ -1341,13 +1350,13 @@
         <v>2</v>
       </c>
       <c r="B15" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="7" t="s">
-        <v>36</v>
-      </c>
       <c r="D15" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>20</v>
@@ -1362,7 +1371,7 @@
       </c>
       <c r="J15" s="7"/>
       <c r="K15" s="7" t="s">
-        <v>22</v>
+        <v>135</v>
       </c>
       <c r="L15" s="9"/>
     </row>
@@ -1371,13 +1380,13 @@
         <v>2</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>20</v>
@@ -1392,7 +1401,7 @@
       </c>
       <c r="J16" s="7"/>
       <c r="K16" s="7" t="s">
-        <v>22</v>
+        <v>135</v>
       </c>
       <c r="L16" s="9"/>
     </row>
@@ -1401,13 +1410,13 @@
         <v>2</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>20</v>
@@ -1422,7 +1431,7 @@
       </c>
       <c r="J17" s="7"/>
       <c r="K17" s="7" t="s">
-        <v>22</v>
+        <v>135</v>
       </c>
       <c r="L17" s="9"/>
     </row>
@@ -1431,13 +1440,13 @@
         <v>2</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>20</v>
@@ -1452,7 +1461,7 @@
       </c>
       <c r="J18" s="7"/>
       <c r="K18" s="7" t="s">
-        <v>22</v>
+        <v>135</v>
       </c>
       <c r="L18" s="9"/>
     </row>
@@ -1461,19 +1470,19 @@
         <v>2</v>
       </c>
       <c r="B19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="7" t="s">
-        <v>42</v>
-      </c>
       <c r="D19" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
@@ -1482,7 +1491,7 @@
       </c>
       <c r="J19" s="7"/>
       <c r="K19" s="7" t="s">
-        <v>22</v>
+        <v>135</v>
       </c>
       <c r="L19" s="9"/>
     </row>
@@ -1491,19 +1500,19 @@
         <v>2</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C20" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
@@ -1512,7 +1521,7 @@
       </c>
       <c r="J20" s="7"/>
       <c r="K20" s="7" t="s">
-        <v>22</v>
+        <v>135</v>
       </c>
       <c r="L20" s="9"/>
     </row>
@@ -1521,19 +1530,19 @@
         <v>2</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
@@ -1542,7 +1551,7 @@
       </c>
       <c r="J21" s="7"/>
       <c r="K21" s="7" t="s">
-        <v>22</v>
+        <v>135</v>
       </c>
       <c r="L21" s="9"/>
     </row>
@@ -1554,10 +1563,10 @@
         <v>11</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>20</v>
@@ -1572,7 +1581,7 @@
       </c>
       <c r="J22" s="7"/>
       <c r="K22" s="7" t="s">
-        <v>22</v>
+        <v>135</v>
       </c>
       <c r="L22" s="9"/>
     </row>
@@ -1584,10 +1593,10 @@
         <v>11</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>20</v>
@@ -1602,7 +1611,7 @@
       </c>
       <c r="J23" s="7"/>
       <c r="K23" s="7" t="s">
-        <v>22</v>
+        <v>135</v>
       </c>
       <c r="L23" s="9"/>
     </row>
@@ -1617,7 +1626,7 @@
         <v>14</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>20</v>
@@ -1632,7 +1641,7 @@
       </c>
       <c r="J24" s="7"/>
       <c r="K24" s="7" t="s">
-        <v>22</v>
+        <v>135</v>
       </c>
       <c r="L24" s="9"/>
     </row>
@@ -1644,16 +1653,16 @@
         <v>11</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G25" s="6"/>
       <c r="H25" s="7"/>
@@ -1662,7 +1671,7 @@
       </c>
       <c r="J25" s="7"/>
       <c r="K25" s="7" t="s">
-        <v>22</v>
+        <v>135</v>
       </c>
       <c r="L25" s="9"/>
     </row>
@@ -1674,16 +1683,16 @@
         <v>11</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G26" s="6"/>
       <c r="H26" s="7"/>
@@ -1692,7 +1701,7 @@
       </c>
       <c r="J26" s="7"/>
       <c r="K26" s="7" t="s">
-        <v>22</v>
+        <v>135</v>
       </c>
       <c r="L26" s="9"/>
     </row>
@@ -1701,13 +1710,13 @@
         <v>2</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>20</v>
@@ -1722,7 +1731,7 @@
       </c>
       <c r="J27" s="7"/>
       <c r="K27" s="7" t="s">
-        <v>22</v>
+        <v>135</v>
       </c>
       <c r="L27" s="9"/>
     </row>
@@ -1731,13 +1740,13 @@
         <v>2</v>
       </c>
       <c r="B28" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C28" s="7" t="s">
-        <v>47</v>
-      </c>
       <c r="D28" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>20</v>
@@ -1752,7 +1761,7 @@
       </c>
       <c r="J28" s="7"/>
       <c r="K28" s="7" t="s">
-        <v>22</v>
+        <v>135</v>
       </c>
       <c r="L28" s="9"/>
     </row>
@@ -1761,13 +1770,13 @@
         <v>2</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>20</v>
@@ -1782,7 +1791,7 @@
       </c>
       <c r="J29" s="7"/>
       <c r="K29" s="7" t="s">
-        <v>22</v>
+        <v>135</v>
       </c>
       <c r="L29" s="9"/>
     </row>
@@ -1791,13 +1800,13 @@
         <v>2</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>20</v>
@@ -1812,7 +1821,7 @@
       </c>
       <c r="J30" s="7"/>
       <c r="K30" s="7" t="s">
-        <v>22</v>
+        <v>135</v>
       </c>
       <c r="L30" s="9"/>
     </row>
@@ -1821,19 +1830,19 @@
         <v>2</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C31" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="G31" s="6"/>
       <c r="H31" s="7"/>
@@ -1842,7 +1851,7 @@
       </c>
       <c r="J31" s="7"/>
       <c r="K31" s="7" t="s">
-        <v>22</v>
+        <v>135</v>
       </c>
       <c r="L31" s="9"/>
     </row>
@@ -1851,19 +1860,19 @@
         <v>2</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G32" s="6"/>
       <c r="H32" s="7"/>
@@ -1872,7 +1881,7 @@
       </c>
       <c r="J32" s="7"/>
       <c r="K32" s="7" t="s">
-        <v>22</v>
+        <v>135</v>
       </c>
       <c r="L32" s="9"/>
     </row>
@@ -1881,19 +1890,19 @@
         <v>2</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G33" s="6"/>
       <c r="H33" s="7"/>
@@ -1902,7 +1911,7 @@
       </c>
       <c r="J33" s="7"/>
       <c r="K33" s="7" t="s">
-        <v>22</v>
+        <v>135</v>
       </c>
       <c r="L33" s="9"/>
     </row>
@@ -1911,13 +1920,13 @@
         <v>2</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>20</v>
@@ -1932,7 +1941,7 @@
       </c>
       <c r="J34" s="7"/>
       <c r="K34" s="7" t="s">
-        <v>22</v>
+        <v>135</v>
       </c>
       <c r="L34" s="9"/>
     </row>
@@ -1941,13 +1950,13 @@
         <v>2</v>
       </c>
       <c r="B35" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C35" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C35" s="7" t="s">
-        <v>51</v>
-      </c>
       <c r="D35" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E35" s="7" t="s">
         <v>20</v>
@@ -1962,7 +1971,7 @@
       </c>
       <c r="J35" s="7"/>
       <c r="K35" s="7" t="s">
-        <v>22</v>
+        <v>135</v>
       </c>
       <c r="L35" s="9"/>
     </row>
@@ -1971,13 +1980,13 @@
         <v>2</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E36" s="7" t="s">
         <v>20</v>
@@ -1992,7 +2001,7 @@
       </c>
       <c r="J36" s="7"/>
       <c r="K36" s="7" t="s">
-        <v>22</v>
+        <v>135</v>
       </c>
       <c r="L36" s="9"/>
     </row>
@@ -2001,13 +2010,13 @@
         <v>2</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E37" s="7" t="s">
         <v>20</v>
@@ -2022,7 +2031,7 @@
       </c>
       <c r="J37" s="7"/>
       <c r="K37" s="7" t="s">
-        <v>22</v>
+        <v>135</v>
       </c>
       <c r="L37" s="9"/>
     </row>
@@ -2031,13 +2040,13 @@
         <v>2</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E38" s="7" t="s">
         <v>20</v>
@@ -2052,7 +2061,7 @@
       </c>
       <c r="J38" s="7"/>
       <c r="K38" s="7" t="s">
-        <v>22</v>
+        <v>135</v>
       </c>
       <c r="L38" s="9"/>
     </row>
@@ -2061,13 +2070,13 @@
         <v>2</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>20</v>
@@ -2082,7 +2091,7 @@
       </c>
       <c r="J39" s="7"/>
       <c r="K39" s="7" t="s">
-        <v>22</v>
+        <v>135</v>
       </c>
       <c r="L39" s="9"/>
     </row>
@@ -2091,13 +2100,13 @@
         <v>2</v>
       </c>
       <c r="B40" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C40" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C40" s="7" t="s">
-        <v>53</v>
-      </c>
       <c r="D40" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E40" s="7" t="s">
         <v>20</v>
@@ -2112,7 +2121,7 @@
       </c>
       <c r="J40" s="7"/>
       <c r="K40" s="7" t="s">
-        <v>22</v>
+        <v>135</v>
       </c>
       <c r="L40" s="9"/>
     </row>
@@ -2121,13 +2130,13 @@
         <v>2</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E41" s="7" t="s">
         <v>20</v>
@@ -2142,7 +2151,7 @@
       </c>
       <c r="J41" s="7"/>
       <c r="K41" s="7" t="s">
-        <v>22</v>
+        <v>135</v>
       </c>
       <c r="L41" s="9"/>
     </row>
@@ -2151,13 +2160,13 @@
         <v>2</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E42" s="7" t="s">
         <v>20</v>
@@ -2172,7 +2181,7 @@
       </c>
       <c r="J42" s="7"/>
       <c r="K42" s="7" t="s">
-        <v>22</v>
+        <v>135</v>
       </c>
       <c r="L42" s="9"/>
     </row>
@@ -2181,13 +2190,13 @@
         <v>2</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E43" s="7" t="s">
         <v>20</v>
@@ -2202,7 +2211,7 @@
       </c>
       <c r="J43" s="7"/>
       <c r="K43" s="7" t="s">
-        <v>22</v>
+        <v>135</v>
       </c>
       <c r="L43" s="9"/>
     </row>
@@ -2214,10 +2223,10 @@
         <v>4</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E44" s="7" t="s">
         <v>20</v>
@@ -2232,7 +2241,7 @@
       </c>
       <c r="J44" s="7"/>
       <c r="K44" s="7" t="s">
-        <v>22</v>
+        <v>135</v>
       </c>
       <c r="L44" s="9"/>
     </row>
@@ -2244,10 +2253,10 @@
         <v>4</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E45" s="7" t="s">
         <v>20</v>
@@ -2262,7 +2271,7 @@
       </c>
       <c r="J45" s="7"/>
       <c r="K45" s="7" t="s">
-        <v>22</v>
+        <v>135</v>
       </c>
       <c r="L45" s="9"/>
     </row>
@@ -2274,10 +2283,10 @@
         <v>4</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E46" s="7" t="s">
         <v>20</v>
@@ -2292,7 +2301,7 @@
       </c>
       <c r="J46" s="7"/>
       <c r="K46" s="7" t="s">
-        <v>22</v>
+        <v>135</v>
       </c>
       <c r="L46" s="9"/>
     </row>
@@ -2304,10 +2313,10 @@
         <v>4</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E47" s="7" t="s">
         <v>20</v>
@@ -2322,7 +2331,7 @@
       </c>
       <c r="J47" s="7"/>
       <c r="K47" s="7" t="s">
-        <v>22</v>
+        <v>135</v>
       </c>
       <c r="L47" s="9"/>
     </row>
@@ -2334,10 +2343,10 @@
         <v>4</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E48" s="7" t="s">
         <v>20</v>
@@ -2352,7 +2361,7 @@
       </c>
       <c r="J48" s="6"/>
       <c r="K48" s="7" t="s">
-        <v>22</v>
+        <v>135</v>
       </c>
       <c r="L48" s="9"/>
     </row>
@@ -2364,10 +2373,10 @@
         <v>4</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E49" s="7" t="s">
         <v>20</v>
@@ -2382,7 +2391,7 @@
       </c>
       <c r="J49" s="6"/>
       <c r="K49" s="7" t="s">
-        <v>22</v>
+        <v>135</v>
       </c>
       <c r="L49" s="9"/>
     </row>
@@ -2394,10 +2403,10 @@
         <v>4</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E50" s="7" t="s">
         <v>20</v>
@@ -2412,7 +2421,7 @@
       </c>
       <c r="J50" s="6"/>
       <c r="K50" s="7" t="s">
-        <v>22</v>
+        <v>135</v>
       </c>
       <c r="L50" s="9"/>
     </row>
@@ -2424,10 +2433,10 @@
         <v>4</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E51" s="7" t="s">
         <v>20</v>
@@ -2442,7 +2451,7 @@
       </c>
       <c r="J51" s="6"/>
       <c r="K51" s="7" t="s">
-        <v>22</v>
+        <v>135</v>
       </c>
       <c r="L51" s="9"/>
     </row>
@@ -2454,10 +2463,10 @@
         <v>4</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E52" s="7" t="s">
         <v>20</v>
@@ -2472,7 +2481,7 @@
       </c>
       <c r="J52" s="6"/>
       <c r="K52" s="7" t="s">
-        <v>22</v>
+        <v>135</v>
       </c>
       <c r="L52" s="9"/>
     </row>
@@ -2484,10 +2493,10 @@
         <v>4</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E53" s="7" t="s">
         <v>20</v>
@@ -2502,7 +2511,7 @@
       </c>
       <c r="J53" s="6"/>
       <c r="K53" s="7" t="s">
-        <v>22</v>
+        <v>135</v>
       </c>
       <c r="L53" s="9"/>
     </row>
@@ -2514,10 +2523,10 @@
         <v>4</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E54" s="7" t="s">
         <v>20</v>
@@ -2532,7 +2541,7 @@
       </c>
       <c r="J54" s="6"/>
       <c r="K54" s="7" t="s">
-        <v>22</v>
+        <v>135</v>
       </c>
       <c r="L54" s="9"/>
     </row>
@@ -2544,16 +2553,16 @@
         <v>4</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E55" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G55" s="6"/>
       <c r="H55" s="6"/>
@@ -2562,7 +2571,7 @@
       </c>
       <c r="J55" s="6"/>
       <c r="K55" s="7" t="s">
-        <v>22</v>
+        <v>135</v>
       </c>
       <c r="L55" s="9"/>
     </row>
@@ -2574,16 +2583,16 @@
         <v>4</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E56" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G56" s="6"/>
       <c r="H56" s="6"/>
@@ -2592,7 +2601,7 @@
       </c>
       <c r="J56" s="6"/>
       <c r="K56" s="7" t="s">
-        <v>22</v>
+        <v>135</v>
       </c>
       <c r="L56" s="9"/>
     </row>
@@ -2604,16 +2613,16 @@
         <v>4</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E57" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G57" s="6"/>
       <c r="H57" s="6"/>
@@ -2622,7 +2631,7 @@
       </c>
       <c r="J57" s="6"/>
       <c r="K57" s="7" t="s">
-        <v>22</v>
+        <v>135</v>
       </c>
       <c r="L57" s="9"/>
     </row>
@@ -2631,13 +2640,13 @@
         <v>2</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E58" s="7" t="s">
         <v>20</v>
@@ -2652,7 +2661,7 @@
       </c>
       <c r="J58" s="6"/>
       <c r="K58" s="7" t="s">
-        <v>22</v>
+        <v>135</v>
       </c>
       <c r="L58" s="9"/>
     </row>
@@ -2664,10 +2673,10 @@
         <v>11</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E59" s="7" t="s">
         <v>20</v>
@@ -2682,7 +2691,7 @@
       </c>
       <c r="J59" s="6"/>
       <c r="K59" s="7" t="s">
-        <v>22</v>
+        <v>135</v>
       </c>
       <c r="L59" s="9"/>
     </row>
@@ -2694,10 +2703,10 @@
         <v>11</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E60" s="7" t="s">
         <v>20</v>
@@ -2712,7 +2721,7 @@
       </c>
       <c r="J60" s="6"/>
       <c r="K60" s="7" t="s">
-        <v>22</v>
+        <v>135</v>
       </c>
       <c r="L60" s="9"/>
     </row>
@@ -2724,16 +2733,16 @@
         <v>11</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E61" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G61" s="6"/>
       <c r="H61" s="6"/>
@@ -2742,7 +2751,7 @@
       </c>
       <c r="J61" s="6"/>
       <c r="K61" s="7" t="s">
-        <v>22</v>
+        <v>135</v>
       </c>
       <c r="L61" s="9"/>
     </row>
@@ -2751,13 +2760,13 @@
         <v>2</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E62" s="7" t="s">
         <v>20</v>
@@ -2772,7 +2781,7 @@
       </c>
       <c r="J62" s="6"/>
       <c r="K62" s="7" t="s">
-        <v>22</v>
+        <v>135</v>
       </c>
       <c r="L62" s="9"/>
     </row>
@@ -2781,19 +2790,19 @@
         <v>2</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E63" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G63" s="6"/>
       <c r="H63" s="6"/>
@@ -2802,7 +2811,7 @@
       </c>
       <c r="J63" s="6"/>
       <c r="K63" s="7" t="s">
-        <v>22</v>
+        <v>135</v>
       </c>
       <c r="L63" s="9"/>
     </row>
@@ -2811,19 +2820,19 @@
         <v>2</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E64" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G64" s="6"/>
       <c r="H64" s="6"/>
@@ -2832,7 +2841,7 @@
       </c>
       <c r="J64" s="6"/>
       <c r="K64" s="7" t="s">
-        <v>22</v>
+        <v>135</v>
       </c>
       <c r="L64" s="9"/>
     </row>
@@ -2841,13 +2850,13 @@
         <v>2</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E65" s="7" t="s">
         <v>20</v>
@@ -2862,7 +2871,7 @@
       </c>
       <c r="J65" s="6"/>
       <c r="K65" s="7" t="s">
-        <v>22</v>
+        <v>135</v>
       </c>
       <c r="L65" s="9"/>
     </row>
@@ -2871,13 +2880,13 @@
         <v>2</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E66" s="7" t="s">
         <v>20</v>
@@ -2892,7 +2901,7 @@
       </c>
       <c r="J66" s="6"/>
       <c r="K66" s="7" t="s">
-        <v>22</v>
+        <v>135</v>
       </c>
       <c r="L66" s="9"/>
     </row>
@@ -2901,13 +2910,13 @@
         <v>2</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E67" s="7" t="s">
         <v>20</v>
@@ -2922,7 +2931,7 @@
       </c>
       <c r="J67" s="6"/>
       <c r="K67" s="7" t="s">
-        <v>22</v>
+        <v>135</v>
       </c>
       <c r="L67" s="9"/>
     </row>
@@ -2931,13 +2940,13 @@
         <v>2</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E68" s="7" t="s">
         <v>20</v>
@@ -2952,7 +2961,7 @@
       </c>
       <c r="J68" s="6"/>
       <c r="K68" s="7" t="s">
-        <v>22</v>
+        <v>135</v>
       </c>
       <c r="L68" s="9"/>
     </row>
@@ -2961,13 +2970,13 @@
         <v>2</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E69" s="7" t="s">
         <v>20</v>
@@ -2982,7 +2991,7 @@
       </c>
       <c r="J69" s="6"/>
       <c r="K69" s="7" t="s">
-        <v>22</v>
+        <v>135</v>
       </c>
       <c r="L69" s="9"/>
     </row>
@@ -2991,19 +3000,19 @@
         <v>2</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E70" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G70" s="6"/>
       <c r="H70" s="6"/>
@@ -3012,7 +3021,7 @@
       </c>
       <c r="J70" s="6"/>
       <c r="K70" s="7" t="s">
-        <v>22</v>
+        <v>135</v>
       </c>
       <c r="L70" s="9"/>
     </row>
@@ -3021,19 +3030,19 @@
         <v>2</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E71" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G71" s="6"/>
       <c r="H71" s="6"/>
@@ -3042,7 +3051,7 @@
       </c>
       <c r="J71" s="6"/>
       <c r="K71" s="7" t="s">
-        <v>22</v>
+        <v>135</v>
       </c>
       <c r="L71" s="9"/>
     </row>
@@ -3054,10 +3063,10 @@
         <v>4</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E72" s="7" t="s">
         <v>20</v>
@@ -3072,7 +3081,7 @@
       </c>
       <c r="J72" s="6"/>
       <c r="K72" s="7" t="s">
-        <v>22</v>
+        <v>135</v>
       </c>
       <c r="L72" s="9"/>
     </row>
@@ -3084,10 +3093,10 @@
         <v>4</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E73" s="7" t="s">
         <v>20</v>
@@ -3102,7 +3111,7 @@
       </c>
       <c r="J73" s="6"/>
       <c r="K73" s="7" t="s">
-        <v>22</v>
+        <v>135</v>
       </c>
       <c r="L73" s="9"/>
     </row>
@@ -3114,10 +3123,10 @@
         <v>4</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E74" s="7" t="s">
         <v>20</v>
@@ -3132,7 +3141,7 @@
       </c>
       <c r="J74" s="6"/>
       <c r="K74" s="7" t="s">
-        <v>22</v>
+        <v>135</v>
       </c>
       <c r="L74" s="9"/>
     </row>
@@ -3144,10 +3153,10 @@
         <v>4</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E75" s="7" t="s">
         <v>20</v>
@@ -3162,7 +3171,7 @@
       </c>
       <c r="J75" s="6"/>
       <c r="K75" s="7" t="s">
-        <v>22</v>
+        <v>135</v>
       </c>
       <c r="L75" s="9"/>
     </row>
@@ -3174,10 +3183,10 @@
         <v>4</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E76" s="7" t="s">
         <v>20</v>
@@ -3192,7 +3201,7 @@
       </c>
       <c r="J76" s="6"/>
       <c r="K76" s="7" t="s">
-        <v>22</v>
+        <v>135</v>
       </c>
       <c r="L76" s="9"/>
     </row>
@@ -3204,10 +3213,10 @@
         <v>4</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E77" s="7" t="s">
         <v>20</v>
@@ -3222,7 +3231,7 @@
       </c>
       <c r="J77" s="6"/>
       <c r="K77" s="7" t="s">
-        <v>22</v>
+        <v>135</v>
       </c>
       <c r="L77" s="9"/>
     </row>
@@ -3234,10 +3243,10 @@
         <v>4</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E78" s="7" t="s">
         <v>20</v>
@@ -3252,7 +3261,7 @@
       </c>
       <c r="J78" s="6"/>
       <c r="K78" s="7" t="s">
-        <v>22</v>
+        <v>135</v>
       </c>
       <c r="L78" s="9"/>
     </row>
@@ -3264,10 +3273,10 @@
         <v>4</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E79" s="7" t="s">
         <v>20</v>
@@ -3282,7 +3291,7 @@
       </c>
       <c r="J79" s="6"/>
       <c r="K79" s="7" t="s">
-        <v>22</v>
+        <v>135</v>
       </c>
       <c r="L79" s="9"/>
     </row>
@@ -3294,10 +3303,10 @@
         <v>4</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E80" s="7" t="s">
         <v>20</v>
@@ -3312,7 +3321,7 @@
       </c>
       <c r="J80" s="6"/>
       <c r="K80" s="7" t="s">
-        <v>22</v>
+        <v>135</v>
       </c>
       <c r="L80" s="9"/>
     </row>
@@ -3324,10 +3333,10 @@
         <v>4</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D81" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E81" s="7" t="s">
         <v>20</v>
@@ -3342,7 +3351,7 @@
       </c>
       <c r="J81" s="6"/>
       <c r="K81" s="7" t="s">
-        <v>22</v>
+        <v>135</v>
       </c>
       <c r="L81" s="9"/>
     </row>
@@ -3354,10 +3363,10 @@
         <v>4</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D82" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E82" s="7" t="s">
         <v>20</v>
@@ -3372,7 +3381,7 @@
       </c>
       <c r="J82" s="6"/>
       <c r="K82" s="7" t="s">
-        <v>22</v>
+        <v>135</v>
       </c>
       <c r="L82" s="9"/>
     </row>
@@ -3384,10 +3393,10 @@
         <v>4</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D83" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E83" s="7" t="s">
         <v>20</v>
@@ -3402,7 +3411,7 @@
       </c>
       <c r="J83" s="6"/>
       <c r="K83" s="7" t="s">
-        <v>22</v>
+        <v>135</v>
       </c>
       <c r="L83" s="9"/>
     </row>
@@ -3414,10 +3423,10 @@
         <v>4</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D84" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E84" s="7" t="s">
         <v>20</v>
@@ -3432,7 +3441,7 @@
       </c>
       <c r="J84" s="6"/>
       <c r="K84" s="7" t="s">
-        <v>22</v>
+        <v>135</v>
       </c>
       <c r="L84" s="9"/>
     </row>
@@ -3444,10 +3453,10 @@
         <v>4</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D85" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E85" s="7" t="s">
         <v>20</v>
@@ -3462,7 +3471,7 @@
       </c>
       <c r="J85" s="6"/>
       <c r="K85" s="7" t="s">
-        <v>22</v>
+        <v>135</v>
       </c>
       <c r="L85" s="9"/>
     </row>
@@ -3474,10 +3483,10 @@
         <v>4</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D86" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E86" s="7" t="s">
         <v>20</v>
@@ -3492,7 +3501,7 @@
       </c>
       <c r="J86" s="6"/>
       <c r="K86" s="7" t="s">
-        <v>22</v>
+        <v>135</v>
       </c>
       <c r="L86" s="9"/>
     </row>
@@ -3504,10 +3513,10 @@
         <v>4</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D87" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E87" s="7" t="s">
         <v>20</v>
@@ -3522,7 +3531,7 @@
       </c>
       <c r="J87" s="6"/>
       <c r="K87" s="7" t="s">
-        <v>22</v>
+        <v>135</v>
       </c>
       <c r="L87" s="9"/>
     </row>
@@ -3531,13 +3540,13 @@
         <v>2</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E88" s="7" t="s">
         <v>20</v>
@@ -3552,7 +3561,7 @@
       </c>
       <c r="J88" s="6"/>
       <c r="K88" s="7" t="s">
-        <v>22</v>
+        <v>135</v>
       </c>
       <c r="L88" s="9"/>
     </row>
@@ -3561,13 +3570,13 @@
         <v>2</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D89" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E89" s="7" t="s">
         <v>20</v>
@@ -3582,7 +3591,7 @@
       </c>
       <c r="J89" s="6"/>
       <c r="K89" s="7" t="s">
-        <v>22</v>
+        <v>135</v>
       </c>
       <c r="L89" s="9"/>
     </row>
@@ -3591,13 +3600,13 @@
         <v>2</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D90" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E90" s="7" t="s">
         <v>20</v>
@@ -3612,7 +3621,7 @@
       </c>
       <c r="J90" s="6"/>
       <c r="K90" s="7" t="s">
-        <v>22</v>
+        <v>135</v>
       </c>
       <c r="L90" s="9"/>
     </row>
@@ -3624,10 +3633,10 @@
         <v>4</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D91" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E91" s="7" t="s">
         <v>20</v>
@@ -3642,7 +3651,7 @@
       </c>
       <c r="J91" s="6"/>
       <c r="K91" s="7" t="s">
-        <v>22</v>
+        <v>135</v>
       </c>
       <c r="L91" s="9"/>
     </row>
@@ -3654,10 +3663,10 @@
         <v>4</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D92" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E92" s="7" t="s">
         <v>20</v>
@@ -3672,7 +3681,7 @@
       </c>
       <c r="J92" s="6"/>
       <c r="K92" s="7" t="s">
-        <v>22</v>
+        <v>135</v>
       </c>
       <c r="L92" s="9"/>
     </row>
@@ -3684,10 +3693,10 @@
         <v>4</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D93" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E93" s="7" t="s">
         <v>20</v>
@@ -3702,7 +3711,7 @@
       </c>
       <c r="J93" s="6"/>
       <c r="K93" s="7" t="s">
-        <v>22</v>
+        <v>135</v>
       </c>
       <c r="L93" s="9"/>
     </row>
@@ -3714,10 +3723,10 @@
         <v>4</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D94" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E94" s="7" t="s">
         <v>20</v>
@@ -3732,7 +3741,7 @@
       </c>
       <c r="J94" s="6"/>
       <c r="K94" s="7" t="s">
-        <v>22</v>
+        <v>135</v>
       </c>
       <c r="L94" s="9"/>
     </row>
@@ -3744,10 +3753,10 @@
         <v>4</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D95" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E95" s="7" t="s">
         <v>20</v>
@@ -3762,7 +3771,7 @@
       </c>
       <c r="J95" s="6"/>
       <c r="K95" s="7" t="s">
-        <v>22</v>
+        <v>135</v>
       </c>
       <c r="L95" s="9"/>
     </row>
@@ -3774,10 +3783,10 @@
         <v>4</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D96" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E96" s="7" t="s">
         <v>20</v>
@@ -3792,7 +3801,7 @@
       </c>
       <c r="J96" s="6"/>
       <c r="K96" s="7" t="s">
-        <v>22</v>
+        <v>135</v>
       </c>
       <c r="L96" s="9"/>
     </row>
@@ -3804,10 +3813,10 @@
         <v>4</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D97" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E97" s="7" t="s">
         <v>20</v>
@@ -3822,7 +3831,7 @@
       </c>
       <c r="J97" s="6"/>
       <c r="K97" s="7" t="s">
-        <v>22</v>
+        <v>135</v>
       </c>
       <c r="L97" s="9"/>
     </row>
@@ -3834,10 +3843,10 @@
         <v>4</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D98" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E98" s="7" t="s">
         <v>20</v>
@@ -3852,7 +3861,7 @@
       </c>
       <c r="J98" s="6"/>
       <c r="K98" s="7" t="s">
-        <v>22</v>
+        <v>135</v>
       </c>
       <c r="L98" s="9"/>
     </row>
@@ -3867,7 +3876,7 @@
         <v>3</v>
       </c>
       <c r="D99" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E99" s="7" t="s">
         <v>20</v>
@@ -3882,7 +3891,7 @@
       </c>
       <c r="J99" s="6"/>
       <c r="K99" s="7" t="s">
-        <v>22</v>
+        <v>135</v>
       </c>
       <c r="L99" s="9"/>
     </row>
@@ -3891,13 +3900,13 @@
         <v>2</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D100" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E100" s="7" t="s">
         <v>20</v>
@@ -3912,7 +3921,7 @@
       </c>
       <c r="J100" s="6"/>
       <c r="K100" s="7" t="s">
-        <v>22</v>
+        <v>135</v>
       </c>
       <c r="L100" s="9"/>
     </row>
@@ -3921,13 +3930,13 @@
         <v>2</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D101" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E101" s="7" t="s">
         <v>20</v>
@@ -3942,7 +3951,7 @@
       </c>
       <c r="J101" s="6"/>
       <c r="K101" s="7" t="s">
-        <v>22</v>
+        <v>135</v>
       </c>
       <c r="L101" s="9"/>
     </row>
@@ -3951,13 +3960,13 @@
         <v>2</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D102" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E102" s="7" t="s">
         <v>20</v>
@@ -3972,7 +3981,7 @@
       </c>
       <c r="J102" s="6"/>
       <c r="K102" s="7" t="s">
-        <v>22</v>
+        <v>135</v>
       </c>
       <c r="L102" s="9"/>
     </row>
@@ -3987,24 +3996,24 @@
         <v>14</v>
       </c>
       <c r="D103" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E103" s="7" t="s">
         <v>1</v>
       </c>
       <c r="F103" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G103" s="6"/>
       <c r="H103" s="6"/>
       <c r="I103" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="J103" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="J103" s="6" t="s">
-        <v>109</v>
-      </c>
       <c r="K103" s="7" t="s">
-        <v>110</v>
+        <v>136</v>
       </c>
       <c r="L103" s="9"/>
     </row>
@@ -4016,27 +4025,27 @@
         <v>4</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D104" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E104" s="7" t="s">
         <v>1</v>
       </c>
       <c r="F104" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G104" s="6"/>
       <c r="H104" s="6"/>
       <c r="I104" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="J104" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="J104" s="6" t="s">
-        <v>109</v>
-      </c>
       <c r="K104" s="7" t="s">
-        <v>110</v>
+        <v>136</v>
       </c>
       <c r="L104" s="9"/>
       <c r="M104" s="11"/>
@@ -4049,27 +4058,27 @@
         <v>4</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D105" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E105" s="7" t="s">
         <v>1</v>
       </c>
       <c r="F105" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G105" s="6"/>
       <c r="H105" s="6"/>
       <c r="I105" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="J105" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="J105" s="6" t="s">
-        <v>109</v>
-      </c>
       <c r="K105" s="7" t="s">
-        <v>110</v>
+        <v>136</v>
       </c>
       <c r="L105" s="9"/>
       <c r="M105" s="11"/>
@@ -4079,30 +4088,30 @@
         <v>2</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D106" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E106" s="7" t="s">
         <v>1</v>
       </c>
       <c r="F106" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G106" s="6"/>
       <c r="H106" s="6"/>
       <c r="I106" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="J106" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="J106" s="6" t="s">
-        <v>109</v>
-      </c>
       <c r="K106" s="7" t="s">
-        <v>110</v>
+        <v>136</v>
       </c>
       <c r="L106" s="9"/>
       <c r="M106" s="11"/>
@@ -4112,30 +4121,30 @@
         <v>2</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D107" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E107" s="7" t="s">
         <v>1</v>
       </c>
       <c r="F107" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G107" s="6"/>
       <c r="H107" s="6"/>
       <c r="I107" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="J107" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="J107" s="6" t="s">
-        <v>109</v>
-      </c>
       <c r="K107" s="7" t="s">
-        <v>110</v>
+        <v>136</v>
       </c>
       <c r="L107" s="9"/>
       <c r="M107" s="11"/>
@@ -4148,10 +4157,10 @@
         <v>4</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D108" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E108" s="6" t="s">
         <v>20</v>
@@ -4162,11 +4171,11 @@
       <c r="G108" s="6"/>
       <c r="H108" s="6"/>
       <c r="I108" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J108" s="6"/>
       <c r="K108" s="6" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="L108" s="9"/>
     </row>
@@ -4178,10 +4187,10 @@
         <v>4</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D109" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E109" s="6" t="s">
         <v>20</v>
@@ -4192,11 +4201,11 @@
       <c r="G109" s="6"/>
       <c r="H109" s="6"/>
       <c r="I109" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J109" s="6"/>
       <c r="K109" s="6" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="L109" s="9"/>
     </row>
@@ -4208,10 +4217,10 @@
         <v>4</v>
       </c>
       <c r="C110" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D110" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E110" s="6" t="s">
         <v>20</v>
@@ -4222,11 +4231,11 @@
       <c r="G110" s="6"/>
       <c r="H110" s="6"/>
       <c r="I110" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J110" s="6"/>
       <c r="K110" s="6" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="L110" s="9"/>
     </row>
@@ -4235,13 +4244,13 @@
         <v>2</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D111" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E111" s="6" t="s">
         <v>20</v>
@@ -4252,11 +4261,11 @@
       <c r="G111" s="6"/>
       <c r="H111" s="6"/>
       <c r="I111" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J111" s="6"/>
       <c r="K111" s="6" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="L111" s="9"/>
     </row>
@@ -4265,13 +4274,13 @@
         <v>2</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D112" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E112" s="6" t="s">
         <v>20</v>
@@ -4282,11 +4291,11 @@
       <c r="G112" s="6"/>
       <c r="H112" s="6"/>
       <c r="I112" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J112" s="6"/>
       <c r="K112" s="6" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="L112" s="9"/>
     </row>
@@ -4295,13 +4304,13 @@
         <v>2</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D113" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E113" s="6" t="s">
         <v>20</v>
@@ -4312,11 +4321,11 @@
       <c r="G113" s="6"/>
       <c r="H113" s="6"/>
       <c r="I113" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J113" s="6"/>
       <c r="K113" s="6" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="L113" s="9"/>
     </row>
@@ -4325,13 +4334,13 @@
         <v>2</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D114" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E114" s="6" t="s">
         <v>20</v>
@@ -4342,11 +4351,11 @@
       <c r="G114" s="6"/>
       <c r="H114" s="6"/>
       <c r="I114" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J114" s="6"/>
       <c r="K114" s="6" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="L114" s="9"/>
     </row>
@@ -4355,13 +4364,13 @@
         <v>2</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C115" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D115" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E115" s="6" t="s">
         <v>20</v>
@@ -4372,11 +4381,11 @@
       <c r="G115" s="6"/>
       <c r="H115" s="6"/>
       <c r="I115" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J115" s="6"/>
       <c r="K115" s="6" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="L115" s="9"/>
     </row>
@@ -4385,13 +4394,13 @@
         <v>2</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D116" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E116" s="6" t="s">
         <v>20</v>
@@ -4402,11 +4411,11 @@
       <c r="G116" s="6"/>
       <c r="H116" s="6"/>
       <c r="I116" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J116" s="6"/>
       <c r="K116" s="6" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="L116" s="9"/>
     </row>
@@ -4418,10 +4427,10 @@
         <v>11</v>
       </c>
       <c r="C117" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D117" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E117" s="6" t="s">
         <v>20</v>
@@ -4432,11 +4441,11 @@
       <c r="G117" s="6"/>
       <c r="H117" s="6"/>
       <c r="I117" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J117" s="6"/>
       <c r="K117" s="6" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="L117" s="9"/>
     </row>
@@ -4461,7 +4470,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.2">
@@ -4477,26 +4486,26 @@
         <v>18</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="B4" s="13" t="s">
         <v>110</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/tabular/contributed/180416 VOX TABLE.xlsx
+++ b/tabular/contributed/180416 VOX TABLE.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="15660" yWindow="7980" windowWidth="30780" windowHeight="19740"/>
+    <workbookView xWindow="15660" yWindow="7980" windowWidth="30780" windowHeight="19740" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="VOX" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="929" uniqueCount="141">
   <si>
     <t>Weight of evidence</t>
   </si>
@@ -443,6 +443,15 @@
   </si>
   <si>
     <t>AASLD_2015_Abs_718</t>
+  </si>
+  <si>
+    <t>Pooled1</t>
+  </si>
+  <si>
+    <t>Pooled2</t>
+  </si>
+  <si>
+    <t>Pooled3</t>
   </si>
 </sst>
 </file>
@@ -890,8 +899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G92" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G92" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="D88" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G107" sqref="G107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -968,7 +977,9 @@
       <c r="F2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="7"/>
+      <c r="G2" s="7" t="s">
+        <v>138</v>
+      </c>
       <c r="H2" s="7"/>
       <c r="I2" s="7" t="s">
         <v>6</v>
@@ -1000,7 +1011,9 @@
       <c r="F3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="7"/>
+      <c r="G3" s="7" t="s">
+        <v>138</v>
+      </c>
       <c r="H3" s="7"/>
       <c r="I3" s="7" t="s">
         <v>6</v>
@@ -1032,7 +1045,9 @@
       <c r="F4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="7"/>
+      <c r="G4" s="7" t="s">
+        <v>139</v>
+      </c>
       <c r="H4" s="7"/>
       <c r="I4" s="6" t="s">
         <v>16</v>
@@ -4004,7 +4019,9 @@
       <c r="F103" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="G103" s="6"/>
+      <c r="G103" s="6" t="s">
+        <v>140</v>
+      </c>
       <c r="H103" s="6"/>
       <c r="I103" s="7" t="s">
         <v>107</v>
@@ -4036,7 +4053,9 @@
       <c r="F104" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="G104" s="6"/>
+      <c r="G104" s="6" t="s">
+        <v>140</v>
+      </c>
       <c r="H104" s="6"/>
       <c r="I104" s="7" t="s">
         <v>107</v>
@@ -4069,7 +4088,9 @@
       <c r="F105" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="G105" s="6"/>
+      <c r="G105" s="6" t="s">
+        <v>140</v>
+      </c>
       <c r="H105" s="6"/>
       <c r="I105" s="7" t="s">
         <v>107</v>
@@ -4102,7 +4123,9 @@
       <c r="F106" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="G106" s="6"/>
+      <c r="G106" s="6" t="s">
+        <v>140</v>
+      </c>
       <c r="H106" s="6"/>
       <c r="I106" s="7" t="s">
         <v>107</v>
@@ -4135,7 +4158,9 @@
       <c r="F107" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="G107" s="6"/>
+      <c r="G107" s="6" t="s">
+        <v>140</v>
+      </c>
       <c r="H107" s="6"/>
       <c r="I107" s="7" t="s">
         <v>107</v>
@@ -4456,54 +4481,63 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.5" customWidth="1"/>
-    <col min="2" max="2" width="36.6640625" customWidth="1"/>
+    <col min="1" max="1" width="35.33203125" customWidth="1"/>
+    <col min="2" max="2" width="68.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C2" s="15" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
         <v>18</v>
       </c>
       <c r="B3" s="14" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C3" s="15" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
         <v>109</v>
       </c>
       <c r="B4" s="13" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C4" s="15" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
         <v>120</v>
       </c>

--- a/tabular/contributed/180416 VOX TABLE.xlsx
+++ b/tabular/contributed/180416 VOX TABLE.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="15660" yWindow="7980" windowWidth="30780" windowHeight="19740" activeTab="1"/>
+    <workbookView xWindow="-21100" yWindow="2720" windowWidth="30780" windowHeight="18000" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="VOX" sheetId="1" r:id="rId1"/>
@@ -899,7 +899,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M117"/>
   <sheetViews>
-    <sheetView topLeftCell="D88" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="G107" sqref="G107"/>
     </sheetView>
   </sheetViews>
@@ -4484,7 +4484,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
